--- a/宏观经济/data_input/欧元-美元.xlsx
+++ b/宏观经济/data_input/欧元-美元.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8295"/>
+  <dimension ref="A1:C8297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88812,6 +88812,26 @@
         <v>98.9393</v>
       </c>
     </row>
+    <row r="8296">
+      <c r="A8296" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B8296" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="C8296" t="n">
+        <v>98.81570000000001</v>
+      </c>
+    </row>
+    <row r="8297">
+      <c r="A8297" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B8297" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="C8297" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
